--- a/Email Order Processing Automation RPA - Risks Log.xlsx
+++ b/Email Order Processing Automation RPA - Risks Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mario Sakka\Documents\UiPath\Order-Email-Processing-Automation-RPA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49922999-0012-4D51-9DE4-7FBDC849E160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38539F9-6C9B-45DA-A66E-E9E10C01A01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,17 +501,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1103,7 +1103,7 @@
   <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="14">
+      <c r="D2" s="11">
         <v>45992</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="14">
+      <c r="D3" s="11">
         <v>46015</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="75" x14ac:dyDescent="0.25">
@@ -1178,59 +1178,59 @@
       <c r="A6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11" t="s">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="11" t="s">
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="11" t="s">
+      <c r="R7" s="14"/>
+      <c r="S7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1307,7 +1307,7 @@
       <c r="C9" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="12">
         <v>45992</v>
       </c>
       <c r="E9" s="6" t="s">
@@ -1369,7 +1369,7 @@
       <c r="C10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>45996</v>
       </c>
       <c r="E10" s="6" t="s">
@@ -1431,7 +1431,7 @@
       <c r="C11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="12">
         <v>46000</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -1493,7 +1493,7 @@
       <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="12">
         <v>46004</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -1555,7 +1555,7 @@
       <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="12">
         <v>46008</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1617,7 +1617,7 @@
       <c r="C14" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>46012</v>
       </c>
       <c r="E14" s="6" t="s">
@@ -1679,7 +1679,7 @@
       <c r="C15" t="s">
         <v>75</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="12">
         <v>46014</v>
       </c>
       <c r="E15" s="6" t="s">
@@ -1741,7 +1741,7 @@
       <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="12">
         <v>45994</v>
       </c>
       <c r="E16" s="6" t="s">
@@ -1803,7 +1803,7 @@
       <c r="C17" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="12">
         <v>45998</v>
       </c>
       <c r="E17" s="6" t="s">
@@ -1865,7 +1865,7 @@
       <c r="C18" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>46002</v>
       </c>
       <c r="E18" s="6" t="s">
